--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_338__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_338__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6067,7 +6067,7 @@
                   <c:v>369.5168151855469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>398.5948181152344</c:v>
+                  <c:v>398.5948486328125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>363.2175903320312</c:v>
@@ -6085,7 +6085,7 @@
                   <c:v>356.5260314941406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>360.7441101074219</c:v>
+                  <c:v>360.744140625</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>339.5020751953125</c:v>
@@ -6112,13 +6112,13 @@
                   <c:v>340.200439453125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>365.3224792480469</c:v>
+                  <c:v>365.322509765625</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>344.1833801269531</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>346.0985412597656</c:v>
+                  <c:v>346.0985717773438</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>330.1400146484375</c:v>
@@ -6130,7 +6130,7 @@
                   <c:v>335.8263854980469</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>371.8597412109375</c:v>
+                  <c:v>371.8597717285156</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>334.0758361816406</c:v>
@@ -6166,13 +6166,13 @@
                   <c:v>350.685791015625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>351.2229309082031</c:v>
+                  <c:v>351.222900390625</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>310.4769897460938</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>355.0497131347656</c:v>
+                  <c:v>355.0496826171875</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>355.9268188476562</c:v>
@@ -6184,7 +6184,7 @@
                   <c:v>343.8113098144531</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>359.692138671875</c:v>
+                  <c:v>359.6921691894531</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>343.7950439453125</c:v>
@@ -6193,7 +6193,7 @@
                   <c:v>349.3047485351562</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>338.9343872070312</c:v>
+                  <c:v>338.9344177246094</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>321.6782531738281</c:v>
@@ -6202,7 +6202,7 @@
                   <c:v>333.9005737304688</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>333.5031433105469</c:v>
+                  <c:v>333.5031127929688</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>347.2637329101562</c:v>
@@ -6214,7 +6214,7 @@
                   <c:v>354.1273193359375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>343.4049072265625</c:v>
+                  <c:v>343.4048767089844</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>341.1885375976562</c:v>
@@ -6247,7 +6247,7 @@
                   <c:v>320.2352294921875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>360.4508972167969</c:v>
+                  <c:v>360.4508666992188</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>353.3990478515625</c:v>
@@ -6256,7 +6256,7 @@
                   <c:v>343.4193115234375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>332.1828002929688</c:v>
+                  <c:v>332.1827697753906</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>338.3811950683594</c:v>
@@ -6271,13 +6271,13 @@
                   <c:v>331.340576171875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>350.899169921875</c:v>
+                  <c:v>350.8992004394531</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>352.724853515625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>342.4693908691406</c:v>
+                  <c:v>342.4693603515625</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>333.2300109863281</c:v>
@@ -6334,7 +6334,7 @@
                   <c:v>348.6006164550781</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>351.5471801757812</c:v>
+                  <c:v>351.5472106933594</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>357.7234497070312</c:v>
@@ -6352,7 +6352,7 @@
                   <c:v>357.8153076171875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>339.2433471679688</c:v>
+                  <c:v>339.2433166503906</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>344.3304443359375</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7082,13 +7094,19 @@
         <v>348.9208374023438</v>
       </c>
       <c r="G3">
+        <v>404</v>
+      </c>
+      <c r="H3">
+        <v>404</v>
+      </c>
+      <c r="R3">
         <v>399</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>369.5168151855469</v>
       </c>
       <c r="G4">
+        <v>404</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>399</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7131,16 +7155,22 @@
         <v>341.987</v>
       </c>
       <c r="F5">
-        <v>398.5948181152344</v>
+        <v>398.5948486328125</v>
       </c>
       <c r="G5">
+        <v>404</v>
+      </c>
+      <c r="H5">
+        <v>404</v>
+      </c>
+      <c r="R5">
         <v>399</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7160,13 +7190,19 @@
         <v>363.2175903320312</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>404</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>399</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7186,13 +7222,19 @@
         <v>361.1721496582031</v>
       </c>
       <c r="G7">
+        <v>404</v>
+      </c>
+      <c r="H7">
+        <v>404</v>
+      </c>
+      <c r="R7">
         <v>399</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7212,7 +7254,7 @@
         <v>374.1474304199219</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7232,7 +7274,7 @@
         <v>334.1831970214844</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>356.5260314941406</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7269,10 +7311,10 @@
         <v>356.4</v>
       </c>
       <c r="F11">
-        <v>360.7441101074219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>360.744140625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>339.5020751953125</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>324.2063293457031</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>361.7298583984375</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7352,7 +7394,7 @@
         <v>391.6001586914062</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7449,7 +7491,7 @@
         <v>358.811</v>
       </c>
       <c r="F20">
-        <v>365.3224792480469</v>
+        <v>365.322509765625</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7489,7 +7531,7 @@
         <v>358.112</v>
       </c>
       <c r="F22">
-        <v>346.0985412597656</v>
+        <v>346.0985717773438</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7569,7 +7611,7 @@
         <v>357.78</v>
       </c>
       <c r="F26">
-        <v>371.8597412109375</v>
+        <v>371.8597717285156</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7809,7 +7851,7 @@
         <v>336.984</v>
       </c>
       <c r="F38">
-        <v>351.2229309082031</v>
+        <v>351.222900390625</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7849,7 +7891,7 @@
         <v>339.952</v>
       </c>
       <c r="F40">
-        <v>355.0497131347656</v>
+        <v>355.0496826171875</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7929,7 +7971,7 @@
         <v>355.784</v>
       </c>
       <c r="F44">
-        <v>359.692138671875</v>
+        <v>359.6921691894531</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7989,7 +8031,7 @@
         <v>340.329</v>
       </c>
       <c r="F47">
-        <v>338.9343872070312</v>
+        <v>338.9344177246094</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8049,7 +8091,7 @@
         <v>358.571</v>
       </c>
       <c r="F50">
-        <v>333.5031433105469</v>
+        <v>333.5031127929688</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8129,7 +8171,7 @@
         <v>338.754</v>
       </c>
       <c r="F54">
-        <v>343.4049072265625</v>
+        <v>343.4048767089844</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8349,7 +8391,7 @@
         <v>336.323</v>
       </c>
       <c r="F65">
-        <v>360.4508972167969</v>
+        <v>360.4508666992188</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8409,7 +8451,7 @@
         <v>340.506</v>
       </c>
       <c r="F68">
-        <v>332.1828002929688</v>
+        <v>332.1827697753906</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8509,7 +8551,7 @@
         <v>360.138</v>
       </c>
       <c r="F73">
-        <v>350.899169921875</v>
+        <v>350.8992004394531</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8549,7 +8591,7 @@
         <v>358.371</v>
       </c>
       <c r="F75">
-        <v>342.4693908691406</v>
+        <v>342.4693603515625</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8929,7 +8971,7 @@
         <v>330.744</v>
       </c>
       <c r="F94">
-        <v>351.5471801757812</v>
+        <v>351.5472106933594</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9049,7 +9091,7 @@
         <v>364.682</v>
       </c>
       <c r="F100">
-        <v>339.2433471679688</v>
+        <v>339.2433166503906</v>
       </c>
     </row>
     <row r="101" spans="1:6">
